--- a/public/metadata-example.xlsx
+++ b/public/metadata-example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbontyes/Repos/GitHub/concept-flow-workspace/metasync/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbontyes/Repos/GitHub/concept-flow-workspace/metasync/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4868D002-A712-6549-8D26-3DD1607E36AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C1A92F-14C5-0C4E-973C-FB02A96B3060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,10 +240,10 @@
     <t>نعم</t>
   </si>
   <si>
-    <t>a5c5563e-df0e-4742-a335-b24fb63664--</t>
-  </si>
-  <si>
     <t>f2af87a3-2a14-4f67-9d51-df1de7a468--</t>
+  </si>
+  <si>
+    <t>a5c5563e-df0e-4742-a335-b24fb6366400</t>
   </si>
 </sst>
 </file>
@@ -760,7 +760,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1021,7 +1021,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
